--- a/stationBoss.xlsx
+++ b/stationBoss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Ma'sullar" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -3186,6 +3186,9 @@
       <c r="C57" t="s">
         <v>169</v>
       </c>
+      <c r="D57">
+        <v>920386294</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">

--- a/stationBoss.xlsx
+++ b/stationBoss.xlsx
@@ -5606,6 +5606,9 @@
       <c r="C271" t="s">
         <v>654</v>
       </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
